--- a/schemas/WorkdayToMaximoMappings.xlsx
+++ b/schemas/WorkdayToMaximoMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos.ferreira1ibm.com/ws/workday/maximo-workday/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F5948-905E-B848-98F4-02139FC29711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A245FAF-51B8-3440-97F7-959E41F1D8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50340" yWindow="1780" windowWidth="24740" windowHeight="17620" xr2:uid="{90F71F93-E3B8-BA46-A8B2-D88EA043161D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20880" xr2:uid="{90F71F93-E3B8-BA46-A8B2-D88EA043161D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
   <si>
     <t>Workday</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Response_Data/Worker/Worker_Reference/ID_NORMALIZED</t>
   </si>
   <si>
-    <t>Get Workers</t>
-  </si>
-  <si>
     <t>Account 9</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Workday Output_Document_Data</t>
   </si>
   <si>
-    <t>Update or create user</t>
-  </si>
-  <si>
     <t>Option 3.  IntegrationTemplate</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>Source System ID</t>
   </si>
   <si>
-    <t>See Workers.json</t>
-  </si>
-  <si>
     <t>Maximo Input Argument</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>workState</t>
   </si>
   <si>
-    <t>workAddressLine1</t>
-  </si>
-  <si>
     <t>Not clear what this  address is in Maximo</t>
   </si>
   <si>
@@ -390,6 +378,270 @@
   </si>
   <si>
     <t>businessTitle</t>
+  </si>
+  <si>
+    <t>workPostalCode</t>
+  </si>
+  <si>
+    <t>managementLevel</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Missing in Maximo Person</t>
+  </si>
+  <si>
+    <t>businessSiteAddressLine1</t>
+  </si>
+  <si>
+    <t>businessSite was longer than Maximo 8 character limit</t>
+  </si>
+  <si>
+    <t>Maximo EMPLOYEETYPE, Maximum Length=10</t>
+  </si>
+  <si>
+    <t>Maximo Attribute Name=OWNERGROUP, Maximum Length=8.</t>
+  </si>
+  <si>
+    <t>Maximo Attribute Name=SADDRESSCODE, Maximum Length=12.</t>
+  </si>
+  <si>
+    <t>Maximo Error Value = nwilliams@workday.net, Object Name=PERSON, Attribute Name=WFMAILELECTION, Maximum Length=15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximo Error -maximum field length that is allowed for this attribute: Value = Vice President, Real Estate &amp; Facilities, Object Name=PERSON, Attribute Name=TITLE, </t>
+  </si>
+  <si>
+    <t>Required / Optional</t>
+  </si>
+  <si>
+    <t>Type (String,email,Boolean etc)</t>
+  </si>
+  <si>
+    <t>Size (#chars)</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>*Where</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>​employeeID​</t>
+  </si>
+  <si>
+    <t>Labor Inventory Site</t>
+  </si>
+  <si>
+    <t>End Location</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>External Reference ID</t>
+  </si>
+  <si>
+    <t>Labor Inventory Location</t>
+  </si>
+  <si>
+    <t>Available Hours</t>
+  </si>
+  <si>
+    <t>LABORID</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Work Type</t>
+  </si>
+  <si>
+    <t>Location Refresh (in seconds)</t>
+  </si>
+  <si>
+    <t>LBSLOCATION</t>
+  </si>
+  <si>
+    <t>KEY1</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>KEY2</t>
+  </si>
+  <si>
+    <t>Altitude accuracy</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>KEY3</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>LBS Location ID</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Workorder</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Location Timestamp</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Reference Object</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Crew Work Group</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Save Location with Work Order</t>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
+    <t>Overtime Refused</t>
+  </si>
+  <si>
+    <t>Start Location</t>
+  </si>
+  <si>
+    <t>Premium Hours</t>
+  </si>
+  <si>
+    <t>LABORCRAFTRATE</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>Default Craft for Labor</t>
+  </si>
+  <si>
+    <t>Control Account</t>
+  </si>
+  <si>
+    <t>Default Ticket GL Account</t>
+  </si>
+  <si>
+    <t>Skill Level</t>
+  </si>
+  <si>
+    <t>GL Account</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Inherit Rate from Craft</t>
+  </si>
+  <si>
+    <t>LABORCRAFTRATEID</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Regular Hours</t>
+  </si>
+  <si>
+    <t>Start location site id</t>
+  </si>
+  <si>
+    <t>End location site id</t>
+  </si>
+  <si>
+    <t>Work Site</t>
+  </si>
+  <si>
+    <t>BEDFORD</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Availability Factor</t>
+  </si>
+  <si>
+    <t>Calls Rest API</t>
+  </si>
+  <si>
+    <t>Retrieves Workers.json</t>
+  </si>
+  <si>
+    <t>DocumentID</t>
+  </si>
+  <si>
+    <t>URL+DocumentID</t>
+  </si>
+  <si>
+    <t>Retrieves  list of Document IDs</t>
+  </si>
+  <si>
+    <t>Workday Integration Template</t>
+  </si>
+  <si>
+    <t>Workday HTTP Get</t>
+  </si>
+  <si>
+    <t>Maximo Update or Create User</t>
+  </si>
+  <si>
+    <t>Maximo Update or create labor</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Otherwise a worker can't be assigned without a valid contract</t>
+  </si>
+  <si>
+    <t>Otherwise a worker can't be assigned without a valid contract,  ELECT - Skill Level= ‘Firstclass’  Vendor=NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencyAchievment/competencyName </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> competencyAchievment/competencyLevel</t>
+  </si>
+  <si>
+    <t>EAGLENA</t>
+  </si>
+  <si>
+    <t>Bedford</t>
+  </si>
+  <si>
+    <t>Hard coded to a specific site installation</t>
+  </si>
+  <si>
+    <t>Hard coded to a specific site installation organization preconfigured in Maximo Tenant.</t>
   </si>
 </sst>
 </file>
@@ -464,13 +716,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,10 +1038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639F693-642A-4D47-924F-E0AED835A2B9}">
-  <dimension ref="A2:I91"/>
+  <dimension ref="A2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,15 +1053,18 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -816,12 +1073,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -832,588 +1089,1230 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="55" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" t="s">
+        <v>116</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" t="s">
+        <v>199</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" t="s">
+        <v>200</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>94</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F72" s="5"/>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>96</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G74" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="L74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F75" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F76" s="2"/>
+      <c r="G76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F77" s="2"/>
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F78" s="2"/>
+      <c r="G78" t="s">
+        <v>82</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F79" s="2"/>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F80" s="2"/>
+      <c r="G80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F81" s="2"/>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F82" s="2"/>
+      <c r="G82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F83" s="2"/>
+      <c r="G83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F84" s="2"/>
+      <c r="G84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F85" s="2"/>
+      <c r="G85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F86" s="2"/>
+      <c r="G86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F87" s="2"/>
+      <c r="G87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F88" s="2"/>
+      <c r="G88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F89" s="2"/>
+      <c r="G89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F90" s="2"/>
+      <c r="G90" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F91" s="2"/>
+      <c r="G91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F92" s="2"/>
+      <c r="G92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F93" s="2"/>
+      <c r="G93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F94" s="2"/>
+      <c r="G94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F95" s="2"/>
+      <c r="G95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F96" s="2"/>
+      <c r="G96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F97" s="2"/>
+      <c r="G97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F98" s="2"/>
+      <c r="G98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F99" s="2"/>
+      <c r="G99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F100" s="2"/>
+      <c r="G100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F101" s="2"/>
+      <c r="G101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F102" s="2"/>
+      <c r="G102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F103" s="2"/>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F104" s="2"/>
+      <c r="G104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F105" s="2"/>
+      <c r="G105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F106" s="2"/>
+      <c r="G106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F107" s="2"/>
+      <c r="G107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F108" s="2"/>
+      <c r="G108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F109" s="2"/>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F110" s="2"/>
+      <c r="G110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F111" s="2"/>
+      <c r="G111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F112" s="2"/>
+      <c r="G112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F113" s="2"/>
+      <c r="G113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F114" s="2"/>
+      <c r="G114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F115" s="2"/>
+      <c r="G115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F116" s="2"/>
+      <c r="G116" t="s">
+        <v>167</v>
+      </c>
+      <c r="H116" t="s">
+        <v>129</v>
+      </c>
+      <c r="K116" t="s">
+        <v>197</v>
+      </c>
+      <c r="L116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F117" s="2"/>
+      <c r="G117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F118" s="2"/>
+      <c r="G118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F119" s="2"/>
+      <c r="G119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F120" s="2"/>
+      <c r="G120" t="s">
+        <v>171</v>
+      </c>
+      <c r="H120" t="s">
+        <v>129</v>
+      </c>
+      <c r="K120" t="s">
+        <v>198</v>
+      </c>
+      <c r="L120" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F121" s="2"/>
+      <c r="G121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F122" s="2"/>
+      <c r="G122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F123" s="2"/>
+      <c r="G123" t="s">
+        <v>174</v>
+      </c>
+      <c r="H123" t="s">
+        <v>129</v>
+      </c>
+      <c r="K123" t="s">
+        <v>194</v>
+      </c>
+      <c r="L123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F124" s="2"/>
+      <c r="G124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F125" s="2"/>
+      <c r="G125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F126" s="2"/>
+      <c r="G126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F127" s="2"/>
+      <c r="G127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F128" s="2"/>
+      <c r="G128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F129" s="2"/>
+      <c r="G129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F130" s="2"/>
+      <c r="G130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F131" s="2"/>
+      <c r="G131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F132" s="2"/>
+      <c r="G132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F133" s="2"/>
+      <c r="G133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F134" s="2"/>
+      <c r="G134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F135" s="2"/>
+      <c r="G135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F136" s="2"/>
+      <c r="G136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F137" s="2"/>
+      <c r="G137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F138" s="2"/>
+      <c r="G138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>2</v>
+      </c>
+      <c r="K164" t="s">
+        <v>3</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
+        <v>9</v>
+      </c>
+      <c r="K166" t="s">
+        <v>14</v>
+      </c>
+      <c r="L166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G43" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F79" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D87" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>26</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91">
+      <c r="C176">
         <v>10</v>
       </c>
     </row>

--- a/schemas/WorkdayToMaximoMappings.xlsx
+++ b/schemas/WorkdayToMaximoMappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos.ferreira1ibm.com/ws/workday/maximo-workday/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A245FAF-51B8-3440-97F7-959E41F1D8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305ECF95-D557-414B-BF35-6A1A1A08F36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20880" xr2:uid="{90F71F93-E3B8-BA46-A8B2-D88EA043161D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="226">
   <si>
     <t>Workday</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Update and Create Labor</t>
   </si>
   <si>
-    <t>Calls</t>
-  </si>
-  <si>
     <t xml:space="preserve">and </t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Option 3 Flow  GetIntegrationEventsCF</t>
-  </si>
-  <si>
     <t>Leave blank</t>
   </si>
   <si>
@@ -623,32 +617,107 @@
     <t>Otherwise a worker can't be assigned without a valid contract</t>
   </si>
   <si>
-    <t>Otherwise a worker can't be assigned without a valid contract,  ELECT - Skill Level= ‘Firstclass’  Vendor=NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competencyAchievment/competencyName </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> competencyAchievment/competencyLevel</t>
-  </si>
-  <si>
     <t>EAGLENA</t>
   </si>
   <si>
     <t>Bedford</t>
   </si>
   <si>
-    <t>Hard coded to a specific site installation</t>
-  </si>
-  <si>
     <t>Hard coded to a specific site installation organization preconfigured in Maximo Tenant.</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Maximo Update or create Craft</t>
+  </si>
+  <si>
+    <t>Maximo Update or create Domain</t>
+  </si>
+  <si>
+    <t>Hard coded to a specific site installation.   Configure Integration template to only send a specific location.</t>
+  </si>
+  <si>
+    <t>skillNames &amp; skillIDs</t>
+  </si>
+  <si>
+    <t>One time Synch at beginning.   Need separate Workday API Call for this.</t>
+  </si>
+  <si>
+    <t>One time Synch at beginning.  Need a separate Workday API Call for this.</t>
+  </si>
+  <si>
+    <t>Otherwise a worker can't be assigned without a valid contract,  ELECT - Skill Level= ‘Firstclass’  Vendor=NULL Use existing Integration Template</t>
+  </si>
+  <si>
+    <t>JobProfileName &amp; JobprofileID ( Pipefitter)</t>
+  </si>
+  <si>
+    <t>skill to be sent by Jaideep  ( Master Pipefitter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where Craft </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>equals"Report_Entry": [{"Skill": "Electrician Apprentice"},</t>
+  </si>
+  <si>
+    <t>Standard Rate</t>
+  </si>
+  <si>
+    <t>Missing in REST Skills Report.json</t>
+  </si>
+  <si>
+    <t>Creates a skill level Master, First Class</t>
+  </si>
+  <si>
+    <t>ALNDOMAIN</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Report Entry</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing in Description ofr the Skill Level </t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>GetIntegrationEventsCF</t>
+  </si>
+  <si>
+    <t>Flow  GetIntegrationEventsCF</t>
+  </si>
+  <si>
+    <t>Flow Steps</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -695,6 +764,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -716,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,6 +799,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,16 +1114,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639F693-642A-4D47-924F-E0AED835A2B9}">
-  <dimension ref="A2:L176"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -1056,15 +1132,29 @@
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="11" max="11" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1075,12 +1165,12 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1089,42 +1179,42 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1136,1183 +1226,1299 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F9" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
         <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" t="s">
         <v>50</v>
-      </c>
-      <c r="K27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28">
         <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I35">
         <v>15</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" t="s">
         <v>63</v>
-      </c>
-      <c r="K39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
         <v>87</v>
       </c>
-      <c r="L64" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
+      <c r="K65" t="s">
+        <v>117</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
         <v>88</v>
       </c>
-      <c r="K65" t="s">
-        <v>119</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
+      <c r="L66" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>89</v>
       </c>
-      <c r="L66" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
+      <c r="L67" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
         <v>90</v>
       </c>
-      <c r="L67" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G68" t="s">
+      <c r="L68" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
         <v>91</v>
       </c>
-      <c r="L68" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
+      <c r="L69" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
         <v>92</v>
       </c>
-      <c r="L69" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G70" t="s">
+      <c r="L70" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
         <v>93</v>
       </c>
-      <c r="L70" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
       <c r="L71" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="6:12" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F72" s="5"/>
       <c r="G72" t="s">
+        <v>94</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
         <v>95</v>
       </c>
-      <c r="L72" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
       <c r="L73" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="6:12" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
       <c r="G74" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="L74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="6:12" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F75" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F76" s="2"/>
-      <c r="G76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F77" s="2"/>
-      <c r="G77" t="s">
-        <v>131</v>
+        <v>199</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="L75" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G76" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" t="s">
+        <v>208</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G77" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="H77" t="s">
-        <v>31</v>
-      </c>
-      <c r="K77" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F78" s="2"/>
-      <c r="G78" t="s">
-        <v>82</v>
+        <v>208</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G78" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
-      </c>
-      <c r="K78" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" t="s">
+        <v>207</v>
+      </c>
+      <c r="H79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I79">
+        <v>15</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K79" t="s">
+        <v>209</v>
+      </c>
+      <c r="L79" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F79" s="2"/>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F80" s="2"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F81" s="2"/>
-      <c r="G81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F82" s="2"/>
-      <c r="G82" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s">
+        <v>208</v>
+      </c>
+      <c r="K80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G81" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F82" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F83" s="2"/>
       <c r="G83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F84" s="2"/>
       <c r="G84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F85" s="2"/>
       <c r="G85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F86" s="2"/>
       <c r="G86" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F87" s="2"/>
       <c r="G87" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F88" s="2"/>
       <c r="G88" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F89" s="2"/>
       <c r="G89" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F90" s="2"/>
       <c r="G90" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F91" s="2"/>
       <c r="G91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F92" s="2"/>
       <c r="G92" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F93" s="2"/>
       <c r="G93" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F94" s="2"/>
       <c r="G94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F95" s="2"/>
       <c r="G95" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F96" s="2"/>
       <c r="G96" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>
       <c r="G97" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F98" s="2"/>
       <c r="G98" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F99" s="2"/>
       <c r="G99" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F100" s="2"/>
       <c r="G100" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F101" s="2"/>
       <c r="G101" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F102" s="2"/>
       <c r="G102" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F103" s="2"/>
       <c r="G103" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F104" s="2"/>
       <c r="G104" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F105" s="2"/>
       <c r="G105" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F106" s="2"/>
       <c r="G106" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F107" s="2"/>
       <c r="G107" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F108" s="2"/>
       <c r="G108" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F109" s="2"/>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F110" s="2"/>
       <c r="G110" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F111" s="2"/>
       <c r="G111" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F112" s="2"/>
       <c r="G112" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F113" s="2"/>
       <c r="G113" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F114" s="2"/>
       <c r="G114" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F115" s="2"/>
       <c r="G115" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F116" s="2"/>
       <c r="G116" t="s">
-        <v>167</v>
-      </c>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-      <c r="K116" t="s">
-        <v>197</v>
-      </c>
-      <c r="L116" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F117" s="2"/>
       <c r="G117" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F118" s="2"/>
       <c r="G118" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F119" s="2"/>
       <c r="G119" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F120" s="2"/>
       <c r="G120" t="s">
-        <v>171</v>
-      </c>
-      <c r="H120" t="s">
-        <v>129</v>
-      </c>
-      <c r="K120" t="s">
-        <v>198</v>
-      </c>
-      <c r="L120" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F121" s="2"/>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F122" s="2"/>
       <c r="G122" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F123" s="2"/>
       <c r="G123" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K123" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L123" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F124" s="2"/>
       <c r="G124" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F125" s="2"/>
       <c r="G125" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F126" s="2"/>
       <c r="G126" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F127" s="2"/>
       <c r="G127" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="H127" t="s">
+        <v>127</v>
+      </c>
+      <c r="K127" t="s">
+        <v>206</v>
+      </c>
+      <c r="L127" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F128" s="2"/>
       <c r="G128" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F129" s="2"/>
       <c r="G129" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="H129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F130" s="2"/>
       <c r="G130" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="H130" t="s">
+        <v>127</v>
+      </c>
+      <c r="K130" t="s">
+        <v>192</v>
+      </c>
+      <c r="L130" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F131" s="2"/>
       <c r="G131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F132" s="2"/>
       <c r="G132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F133" s="2"/>
       <c r="G133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F134" s="2"/>
       <c r="G134" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F135" s="2"/>
       <c r="G135" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F136" s="2"/>
       <c r="G136" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F137" s="2"/>
       <c r="G137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F138" s="2"/>
       <c r="G138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="K150" t="s">
+        <v>201</v>
+      </c>
+      <c r="L150" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F158" t="s">
+    <row r="158" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
+    <row r="168" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
+    <row r="171" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
         <v>6</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G171" t="s">
         <v>2</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K171" t="s">
         <v>3</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G166" t="s">
+    <row r="173" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+      <c r="K173" t="s">
+        <v>13</v>
+      </c>
+      <c r="L173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
         <v>9</v>
       </c>
-      <c r="K166" t="s">
-        <v>14</v>
-      </c>
-      <c r="L166" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G168" t="s">
-        <v>10</v>
-      </c>
-      <c r="K168" t="s">
+      <c r="K175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D172" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
         <v>22</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C180" t="s">
         <v>23</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
         <v>25</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>26</v>
-      </c>
-      <c r="C176">
+      <c r="C183">
         <v>10</v>
       </c>
     </row>

--- a/schemas/WorkdayToMaximoMappings.xlsx
+++ b/schemas/WorkdayToMaximoMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos.ferreira1ibm.com/ws/workday/maximo-workday/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B77A36C-FFC4-6048-AEAC-4E4B60DD7A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C1130-B6DB-EB45-864A-12ADB59BA72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="460" windowWidth="35840" windowHeight="20660" xr2:uid="{90F71F93-E3B8-BA46-A8B2-D88EA043161D}"/>
+    <workbookView xWindow="13700" yWindow="460" windowWidth="35840" windowHeight="20600" xr2:uid="{90F71F93-E3B8-BA46-A8B2-D88EA043161D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="233">
   <si>
     <t>Workday</t>
   </si>
@@ -659,9 +659,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>Standard Rate</t>
-  </si>
-  <si>
     <t>Missing in REST Skills Report.json</t>
   </si>
   <si>
@@ -716,10 +713,25 @@
     <t>maximo_workday_intial_setup_crafts</t>
   </si>
   <si>
-    <t>equals"Report_Entry": [{"JobProfileName": "Electrician Apprentice"},</t>
-  </si>
-  <si>
     <t>maximo_workday_get_integration_events</t>
+  </si>
+  <si>
+    <t>Update or Create Craft</t>
+  </si>
+  <si>
+    <t>Job_profile_name</t>
+  </si>
+  <si>
+    <t>Job_profile_ID</t>
+  </si>
+  <si>
+    <t>CRAFTID</t>
+  </si>
+  <si>
+    <t>Manually set in flow.</t>
+  </si>
+  <si>
+    <t>Job_profile_name from Crafts "Report_Entry": [{"JobProfileName": "Electrician Apprentice"},</t>
   </si>
 </sst>
 </file>
@@ -1125,9 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639F693-642A-4D47-924F-E0AED835A2B9}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,29 +1154,29 @@
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="50.1640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
-        <v>220</v>
-      </c>
       <c r="G1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" t="s">
         <v>219</v>
-      </c>
-      <c r="H1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1176,13 +1188,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>182</v>
@@ -1220,7 +1232,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>187</v>
@@ -1244,7 +1256,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>188</v>
@@ -1274,10 +1286,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>189</v>
@@ -1872,68 +1884,74 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="M75" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I76" t="s">
         <v>207</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H77" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I77" t="s">
         <v>207</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L77" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M77" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H78" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I78" t="s">
         <v>207</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>197</v>
@@ -1948,16 +1966,19 @@
         <v>15</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M79" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>231</v>
+      </c>
       <c r="H80" t="s">
         <v>80</v>
       </c>
@@ -1969,19 +1990,25 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
       <c r="H81" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
+      <c r="L81" t="s">
+        <v>229</v>
+      </c>
       <c r="M81" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>190</v>
